--- a/relatedFiles/other files/final/service-categories.xlsx
+++ b/relatedFiles/other files/final/service-categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev\Laravel\_Developing_Phase_Project\Murarkey Single Vendor\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AC8EAE-18A9-4E84-9D4C-6C6FE6EA2B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051DE16D-0CF3-41B0-8293-0EC805EF3D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="167">
   <si>
     <t>name</t>
   </si>
@@ -55,228 +55,114 @@
     <t>parlour-at-home</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/0oiFkF3yDhbnji6MJM774OfUiE9xwJVCaAufrhSp.png</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/ciltJmTPXN9IJDtkebnC2nVXUjN8MMbgLk1J7NyA.png</t>
-  </si>
-  <si>
     <t>HAIR SALON</t>
   </si>
   <si>
     <t>hair-salon</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/y00gDSMZbhg4Ndz5Ipo9eQ4VRZEuYOpdxb4mfScD.png</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/kNgZpnqbwiU2IPqnbVwv1cipb1PILm7Db8j29IGE.jpg</t>
-  </si>
-  <si>
     <t>HAND, FEET &amp; NAILS</t>
   </si>
   <si>
     <t>hand-feet-nails</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/wQ8aOMvbd03cVlpSFLHdLBURft3quthSrE2F3N0n.png</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/navqlIOPluktnClNgZgtG031oGWggF9tEG2ZVcNI.png</t>
-  </si>
-  <si>
     <t>SPA SERVICES</t>
   </si>
   <si>
     <t>spa-services</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/Y3dZcWsXYBh6q4zzCHbeyUSPvDtfePdigC29BxlO.png</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/s3JbpbOzRShOZt3Wih9vWFtIti05gtWRjCkDwyrt.jpg</t>
-  </si>
-  <si>
     <t>Makeup And Hairstyling</t>
   </si>
   <si>
     <t>makeup-and-hairstyling</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/cCPjcC02WsOn0dy8IQM99zIzlkD7Xdq8KozAnHFL.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/odGMrAolpeeLajnrjzAYNBKnWi57K5EbHdPD498E.jpg</t>
-  </si>
-  <si>
     <t>Makeup</t>
   </si>
   <si>
     <t>makeup</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/YxvHfGnYcVPuCQHWhkqz4VY3eBL3WrAPqlE1bWxE.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/k0iJYfndgikxKe4b3MYpFZLMTXQk4WfNdgAXq9OE.jpg</t>
-  </si>
-  <si>
     <t>Bridal</t>
   </si>
   <si>
     <t>bridal</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/48yvhYJLS8o20L9PgV53tEZxVdlvfxozNk2oCNuR.png</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/c9OjIrInJ8CxV0B0ruBWACQ6xadtUbsbsdqu8yo3.jpg</t>
-  </si>
-  <si>
     <t>Mehendi &amp; Dressing</t>
   </si>
   <si>
     <t>mehendi-dressing</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/EbyPno3o8ZeTidzTeQ38sW7Xg6wDYIooNP34sbBx.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/1aLcKiniG7vN08hKonyKkCe9KD6QDcppT1CmPMX0.jpg</t>
-  </si>
-  <si>
     <t>Bridesmaid &amp; Bridal Parties</t>
   </si>
   <si>
     <t>bridesmaid-bridal-parties</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/lZkofKy9DFmfmtbhApM7Uy80AxxBmgJLQ6TMSlpx.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/YZpbTY3fNS5hjST0WVpqMVDfwtMZ5ILlvPciVgH3.jpg</t>
-  </si>
-  <si>
     <t>Haircuts</t>
   </si>
   <si>
     <t>haircuts</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/vII82kWQtzQGDUJaqRVJ0gpzYw1Q8eCoaU0xL2OD.png</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/yvqXmbDS5FkyAILDStcZRTn2yObls5xOrBliRHnK.jpg</t>
-  </si>
-  <si>
     <t>Wash &amp; Dry</t>
   </si>
   <si>
     <t>wash-dry</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/JfNLjjvw7ZRPTpAD53AOF95KNYrHkjzze5b1x2Yo.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/VwA1YiV9TsCtKbBfxku85vMLCqRUdga3DvuB7am4.jpg</t>
-  </si>
-  <si>
     <t>Hair Color</t>
   </si>
   <si>
     <t>hair-color</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/6bwzkU3Cm36xrTPDW0g8WTVpo4FJ99v9nZS8Sjsr.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/dixDc478blVWSCozuuXihc92SoZGtMVEon6CaHv1.jpg</t>
-  </si>
-  <si>
     <t>Oil Massage</t>
   </si>
   <si>
     <t>oil-massage</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/aGJKCWNhH3IRSf2xDERSBdgya3A4LOMuix2ClMiN.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/mHig1ZSre6tq7DZARIOC3HPJ63SkwoMifW3GSKAk.jpg</t>
-  </si>
-  <si>
     <t>Ironing</t>
   </si>
   <si>
     <t>ironing</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/WFSM1maw6ylithQa7zX8fhu1cEljLKvawVdlc3SP.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/63si0xIYimT0rqpQGpHvlUO3BdjDyAZuB2Fnz2y0.jpg</t>
-  </si>
-  <si>
     <t>Rebonding</t>
   </si>
   <si>
     <t>rebonding</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/tKCDTjR6rgVrmr2scTKOz4rT5vPmODYywNk8erMd.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/nE8LBFXGiH3S5TJzNRT1B1V2iArqRqHdllGHB66n.jpg</t>
-  </si>
-  <si>
     <t>Hair Spa</t>
   </si>
   <si>
     <t>hair-spa</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/NGQlJzi6a91Dz3wxfKOLIrMF0ePZoK0hCUMkWNPy.png</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/FHZr4OJNwAAaSsoVJpZ6ahxy3C67YWw7ILLcfoiv.jpg</t>
-  </si>
-  <si>
     <t>Pretty Curls</t>
   </si>
   <si>
     <t>pretty-curls</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/7QNoPMSST4rvfeXEBkPGyCdUlIDqd72WqHVJeHtL.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/2lSAxO11gXWeMtloOPTEMLGUfnqKb7hMcOJO8Z4E.jpg</t>
-  </si>
-  <si>
     <t>Hair Extension</t>
   </si>
   <si>
     <t>hair-extension</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/VF5tAGrzgr2wcp8oX2Z68VJpEebptHqUCGRJ39Sw.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/CzwYM70HVaBWgyeRVn5tJcSqyWn1d2BOvQIOqxUQ.jpg</t>
-  </si>
-  <si>
     <t>Hair Highlight</t>
   </si>
   <si>
     <t>hair-highlight</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/4PnlcceeAaYtYThjKX0hAprSvhl2VRivbd6XDExq.png</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/12mqmrmdTDDk0TWC4dsyW7ozzIdRv3Q9vuSTCEjH.png</t>
-  </si>
-  <si>
     <t>Facial</t>
   </si>
   <si>
@@ -286,738 +172,381 @@
     <t>waxing-spa</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/A2CEY9SgLREZ0q9pV4ZWmlx87rjMy0pm82Gdwksn.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/mWiMAD5KegGMKtWhBySjmNQofLP8jX0Y0Ol3T4c2.jpg</t>
-  </si>
-  <si>
     <t>Waxing &amp; Spa</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/Zbaz2lpFJR48QtGbfKI1RRARK5vb6aD99aEXTkQ3.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/iRJsgDh22jXFGT3mpjJD4blfjc3xHOKHfwpedPO8.jpg</t>
-  </si>
-  <si>
     <t>Hairstyling</t>
   </si>
   <si>
     <t>hairstyling</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/JQS7m4YVZZ8Gwobw6A3c0LW8qdSCxmSblk9B3Axh.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/9yHE0jJby2at2ayznB5r7Mpc0bD6VCwSN37X8LXa.jpg</t>
-  </si>
-  <si>
     <t>Bridal Makeup &amp; Hairstyling</t>
   </si>
   <si>
     <t>bridal-makeup-hairstyling</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/YTlGoR5i0LuhEUyVlAhRsGFw1hFSDzRYH8ZQhZWb.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/kfQj3GiN1Du1oLdO848nW739rdKbTqssPwbYGR87.jpg</t>
-  </si>
-  <si>
     <t>Bridal Package</t>
   </si>
   <si>
     <t>bridal-package</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/NQcBtId8gOJZC4Y7pnaaEEqrRMDp2R2NU5D8wUsu.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/UUAVImBOXTN79Pnvbc6OnNglbZwISYyBh2hvUD1u.jpg</t>
-  </si>
-  <si>
     <t>Salon at Home for Men</t>
   </si>
   <si>
     <t>salon-at-home-for-men</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/m6f2tBRNtErpmM9bNl0wMqY7oVFW5MsczxHnZ9I6.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/kRCuel7X7aHPre4PX7YNYvW085twAJmdnxBSxrV8.jpg</t>
-  </si>
-  <si>
     <t>Barber Services</t>
   </si>
   <si>
     <t>barber-services</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/aXYBUGSmaIsLVhwEMxDGi6gwYr2pHO4FrUMtP1aE.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/oTcgvc9lgjsGSrLADEnjsXQGHrlxunvuG2xVWrTk.jpg</t>
-  </si>
-  <si>
     <t>Men Hair Care &amp; Facial</t>
   </si>
   <si>
     <t>men-hair-care-facial</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/npzx0SmYVuCzbtu4i6q2vNDRUpwh1K5vTkXqWJGW.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/Tx6glxScAEIzZf2pWKMXG3tz6Jz9X23Z7j2ziy4A.jpg</t>
-  </si>
-  <si>
     <t>Men Hand &amp; Feet</t>
   </si>
   <si>
     <t>men-hand-feet</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/Sk3CVNcYGaCdoz2elozjp1ZgeGMvF8lviLGdMr6R.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/oDczsNrc796mF8uqd41RmBy7PiqLIAkNd9actzsg.jpg</t>
-  </si>
-  <si>
     <t>Manscaping</t>
   </si>
   <si>
     <t>manscaping</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/w5jnQXBdkT18qvGK7P7jFkBhT2ZDz1Gfjx2LdQA1.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/yIeVCXvHezZwwFJT5GLQrYCvZEJ20coPs1dxClWc.jpg</t>
-  </si>
-  <si>
     <t>Groom &amp; His Best Men</t>
   </si>
   <si>
     <t>groom-his-best-men</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/yyOO9zWTRT7C0GDkVHqHpxX6VdlYG0MxRw6jQE1G.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/sZX3SfRkVCHBeE0nPRqhpG1O5KZ7u7dKpqdJGjiE.jpg</t>
-  </si>
-  <si>
     <t>Manicure</t>
   </si>
   <si>
     <t>manicure</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/EHUREY0TKJTKcPjiLC5LMEuRht9m3DdeufyvRalP.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/XVjBd9fBQAgI461msufnQwcbFeqHRSZWY9NY3sU1.jpg</t>
-  </si>
-  <si>
     <t>Foot Massage</t>
   </si>
   <si>
     <t>foot-massage</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/vl3fn6Jmh0IAqecbD9XWdaOx8pV3Kvn7FkMG6jFJ.png</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/CIAMXqwdvCp4CuVYSaoo1QykRITQlW8tzevUzsLe.png</t>
-  </si>
-  <si>
     <t>Bleach</t>
   </si>
   <si>
     <t>bleach</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/XyNGinEeM8CmGrNOLAgbTzPhCzMaHuamdi04fT9R.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/UrM3AwKH2mGkxJDDo7KbDVBbmhbhtjonMz5Q240a.jpg</t>
-  </si>
-  <si>
     <t>Detan</t>
   </si>
   <si>
     <t>detan</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/UK3u03RK0MkC4TIs4kPtSqGnkgevShP8wrFZoC99.png</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/Kl5CK0ifgoxxwhDi0xWdFjwAXJPee1j0ZcdSP5Gc.png</t>
-  </si>
-  <si>
     <t>Waxing Arm</t>
   </si>
   <si>
     <t>waxing-arm</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/4x2dFTsrtaUQPpGgMe4OpXnIgjGEtMpgjYLBlVwM.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/XI04IDJqb4XCi7tPCg1ybjOxB0EFLNgiw14iirKK.jpg</t>
-  </si>
-  <si>
     <t>Waxing Leg</t>
   </si>
   <si>
     <t>waxing-leg</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/EJAi3KGw4wRGM8phxQrMlmLQfstWf8SroKwexMcj.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/8m2x4t4z8U8XRmXwDNvvIiwkghjPqaTd7HIGmcUH.jpg</t>
-  </si>
-  <si>
     <t>Waxing Body</t>
   </si>
   <si>
     <t>waxing-body</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/ENfupqP2ouRlvFvVcd81PhVtM3Edxjqtj3gnv1zA.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/2qzDRzmf0T56ktQGkFBZyvI5loC3pcf6x99Jbos3.jpg</t>
-  </si>
-  <si>
     <t>Threading</t>
   </si>
   <si>
     <t>threading</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/WfDOFyqvgFCb0qM2LWOuzQfut3WrF9Az5rPYbjRX.webp</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/CpqEk1DIAo8jjUgApnCuWUvoXzgVgz7GEX6gHVNu.webp</t>
-  </si>
-  <si>
     <t>Bleach (Face &amp; Neck )</t>
   </si>
   <si>
     <t>bleach-face-neck</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/z5wWUAuvB9mr898vzyVFhOnjPIX6TcVLi56qJ4D3.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/wFBswGogqLiRGfsbgRssYhUJFJaYKye09e7moZsg.jpg</t>
-  </si>
-  <si>
     <t>DETAN (Face &amp; Neck)</t>
   </si>
   <si>
     <t>detan-face-neck</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/fYu1nd05ApWF5UuuUre988Uv69Cc4nXf43qD0Idq.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/HOycAJ4UOM0Tp9zirXX7NkeeuFpd7osYxpzBo8cX.jpg</t>
-  </si>
-  <si>
     <t>Beard Trim</t>
   </si>
   <si>
     <t>beard-trim</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/NIgfeLhrNF54I6Svwztmwnpa7IO6rp0ttOVft3Ld.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/77NjuvBge2kqKhOmyOrSNd0ebDu7iVCZ2WLCkxGB.jpg</t>
-  </si>
-  <si>
     <t>Mustache Trim</t>
   </si>
   <si>
     <t>mustache-trim</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/LsUfQ1Lg3qyVvbGDxdGr1JSz8asAokr3fgG97ez6.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/GfBuqt6d6jNmryALhaFLAbOksZMtdb455PnceG5q.jpg</t>
-  </si>
-  <si>
     <t>Head Massage</t>
   </si>
   <si>
     <t>head-massage</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/V8gmhh4guejJtzAaNYM6eD3nNk8GKyYa6M41fyEW.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/lp2X2M3phgj7b72MztUnn46CUnpwqNzznUkhw7DP.jpg</t>
-  </si>
-  <si>
     <t>Hair Care and Facial</t>
   </si>
   <si>
     <t>hair-care-and-facial</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/w036QRfI1SmQi2PI2WXtg7Tn0PfUccu2vecvKeP0.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/xsZHTpKhJWWj1qPVy8aHpBunQMJgpyRdzaC8y01x.jpg</t>
-  </si>
-  <si>
     <t>Hair Color Pro(men)</t>
   </si>
   <si>
     <t>hair-color-promen</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/ChqJHWIRVZHNhDU73Y2hE7ZMDC3T6AulZTO3JvuS.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/wlYeK4zHdGKKjaoEM98kc4uR9ffzUjk2L770qblN.jpg</t>
-  </si>
-  <si>
     <t>hair color(Men)</t>
   </si>
   <si>
     <t>hair-colormen</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/xUVEqtS55DcluNa6hnXiJpThwHQMACvWUJ4m9xkd.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/M721btHD65nIqBczWoIzJYUqGcy14cCzXOzXPFVJ.jpg</t>
-  </si>
-  <si>
     <t>Facial(men)</t>
   </si>
   <si>
     <t>facialmen</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/5FX3ESDfjfBMa6fS3nvf4fmfGeurDXgjR94JcllU.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/9iwOmUYoyElec8ZsOGomx2eHON5kUopOw6i605DS.jpg</t>
-  </si>
-  <si>
     <t>Facial Pro(men)</t>
   </si>
   <si>
     <t>facial-promen</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/DWpX9c3KlEwjN4KTOt0uFZvk15Ivw7Xfcl2PHxiQ.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/GHInszR7Vyiz6MTgyG9u6XbHSXWou3LzsAsBhSXn.jpg</t>
-  </si>
-  <si>
     <t>Trimming Services</t>
   </si>
   <si>
     <t>trimming-services</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/bqZxz8yXncI52gF9HQNSOYuTc2NUUs8sPJZK0xVC.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/2QHgJI9PenM5OWvKQxvv2u00qpVBaUiemINBf4iz.jpg</t>
-  </si>
-  <si>
     <t>Waxing Services</t>
   </si>
   <si>
     <t>waxing-services</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/cD8VrzmCp5W0pWwXsxx7S8xIN003ycY9oeR6HRJl.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/VOBf4uHzj9wUwDbRJDxC0pQI1ADhvVBu5CYVQNow.jpg</t>
-  </si>
-  <si>
     <t>Groom Silver Package</t>
   </si>
   <si>
     <t>groom-silver-package</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/gYce6r68OI9tcrVYwPxUjt64gc7QAfjbI7jasNid.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/mmZCdMEveVPAW3JuvBdXQqHBiwmrueCiGkGeDgQv.jpg</t>
-  </si>
-  <si>
     <t>Groom Golden Package</t>
   </si>
   <si>
     <t>groom-golden-package</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/N7zBEiUSjop1pEGxad05thLp658ZsPXJSWAHORDI.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/WihYBo60NnZk16HMWqL4LTILpnV671mKQ5VXOLy1.jpg</t>
-  </si>
-  <si>
     <t>Best Friend Package</t>
   </si>
   <si>
     <t>best-friend-package</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/RybokOodJAjUUEtnj7CsfwM82AWgsOcX1OEMMxS5.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/aLmVOIq7nQKM9Ymsdc75HLo0OX5T0RxJNFZhO7IO.jpg</t>
-  </si>
-  <si>
     <t>Light Makeup</t>
   </si>
   <si>
     <t>light-makeup</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/pyUU7wXU37KC182Hu9Ll2bgxr1aGJCpannQCW7n1.png</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/SYpkE0wYCg4KX648wjgfVUBB2Tczo544AWgB1Yxu.png</t>
-  </si>
-  <si>
     <t>Party Makeup</t>
   </si>
   <si>
     <t>party-makeup</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/kTvSkMKOqshyVYCdEXbLFk8dRtNMnVeJPm4Ql0FL.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/WRGzuoyaewkXxAObjR9Fu3fVOULWvezKi6xBtVbj.jpg</t>
-  </si>
-  <si>
     <t>Event Makeup</t>
   </si>
   <si>
     <t>event-makeup</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/AQacxJ3nWIMLon4PY3hZchiJjr2M2YY5JGj2WmcE.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/7Xp0DePLJ7NB4i0KTqiNtMDgWZmdPI8eas6t0zj7.jpg</t>
-  </si>
-  <si>
     <t>Event Hairstyling</t>
   </si>
   <si>
     <t>event-hairstyling</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/MgKQUc0m2W9BWdHR0uiKFMxg0OXraa0fTy5KT99t.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/gkLGFsTBmHAE2372y32xCCxn60mw1cVBP66oKNoN.jpg</t>
-  </si>
-  <si>
     <t>Photoshoot Makeup</t>
   </si>
   <si>
     <t>photoshoot-makeup</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/VmhjeQXAPF1FOdAYSjPwLlZyO7YDtemmNoV06YN4.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/ipjyBTSR2onNMVG722qWPloRduJRpN1Ay46NCFWX.jpg</t>
-  </si>
-  <si>
     <t>Party Hairstyling</t>
   </si>
   <si>
     <t>party-hairstyling</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/vXz9GWj7rkrAsCwx66xkESWbNAgybo3uZD6zS09f.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/sXgRitXoJrhNYazI5rOuxcQfnBkEKxYzhPJlBroq.jpg</t>
-  </si>
-  <si>
     <t>Golden Queen Bride</t>
   </si>
   <si>
     <t>golden-queen-bride</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/9OHSXCeTOuU4nLBjL7Gvf0P9KoEyJBOeCtRt8Z6K.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/OYAiYiBzotI1S7hGSN7QNMDcLCxtVAOTAkUuNeKn.jpg</t>
-  </si>
-  <si>
     <t>Hairstyling Photoshoot Package</t>
   </si>
   <si>
     <t>hairstyling-photoshoot-package</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/brZMQNb6Jgitvy23Dpz28gHFGhcucbRLgDNze0sM.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/7XTlwJCwqiyKsV6x8HmaWovKoksNsWkqlxk10DDc.jpg</t>
-  </si>
-  <si>
     <t>Engagement Hairstyling</t>
   </si>
   <si>
     <t>engagement-hairstyling</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/QNisotJ7Hq3tHJJbXyx9HitKSlkgCwgmFbQGvJi3.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/1HFNTPw8vsiJVDLYK1fiEJM6WYtQ1PP37LbTsKgH.jpg</t>
-  </si>
-  <si>
     <t>Bridal Hairstyling</t>
   </si>
   <si>
     <t>bridal-hairstyling</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/7NCD5r2O1psVEVNqiOlgvUeilJszTsCYvo9DcDvp.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/fyA0YIx1ZhaUbsQJA85k0WNbx56zug6YsT89zDGd.jpg</t>
-  </si>
-  <si>
     <t>Reception Hairstyling</t>
   </si>
   <si>
     <t>reception-hairstyling</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/k3BIlOMbgvfWmbEyFxTXQ3jAgEsRCBAP6MMX8wUk.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/2ElLYj5l8WvwJn4by4zAGx4TEKn9m3wHeh5yBQgv.jpg</t>
-  </si>
-  <si>
     <t>Bridal Makeup</t>
   </si>
   <si>
     <t>bridal-makeup</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/yiDhjWRVIYysyxIlCxWjuLuPIdiaYsUbg7gRcnjo.jpg</t>
-  </si>
-  <si>
     <t>Reception Makeup</t>
   </si>
   <si>
     <t>reception-makeup</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/A1kbYx0UI0yMrNCnCvcaCwEbtZJpKVVwUgzU0C39.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/8qoXRYcZJBdvOi3vjRkKSSKlbdo0hejMUpoK0l83.jpg</t>
-  </si>
-  <si>
     <t>Engagement Makeup</t>
   </si>
   <si>
     <t>engagement-makeup</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/B49MQP8ZFjoYueeyYeCdlZL84260kDKShv6mCdu8.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/XxtvCx455mgYq0tycerJWwW0sPIhUWOlWAGpRyhw.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/zaoARtWo6e2qvhKiLSy9UNYTQxVB6ssbhcLr93QI.jpg</t>
-  </si>
-  <si>
     <t>Mehendi &amp; Saree Draping</t>
   </si>
   <si>
     <t>mehendi-saree-draping</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/u7mwvfvwiYqTAxvG3y0ZYT2Sy1jVG35SixAED3PB.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/vlvUDbIbsLX8Y9hAbCEZUHDW5GPIJpYRZZGbAD5c.jpg</t>
-  </si>
-  <si>
     <t>Bridal Mehendi</t>
   </si>
   <si>
     <t>bridal-mehendi</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/ogAPvGMLQnlCKl1GeXqN8RLcvjhK3yJ34ZPkhWkZ.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/tW1HXEJfqkskGLqQ3ziioXnf5tmkZNNjNem8x3QD.jpg</t>
-  </si>
-  <si>
     <t>Bridal Parties Mehendi</t>
   </si>
   <si>
     <t>bridal-parties-mehendi</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/uRjdNW48ihjjN9jSdIyOsChPwHSSyMCYtVHUCItI.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/6wf7an2lworZR4Cujeh6zclW7hhcRaCx9Ai7Megd.jpg</t>
-  </si>
-  <si>
     <t>Saree Draping</t>
   </si>
   <si>
     <t>saree-draping</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/YbnTW9FZ5syhPzxzbWjgApK9blRwhRWOqKhK27MF.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/CEFeVU5EAeLW9ZGcBQVetmKUoDTjMVXXGasXtnus.jpg</t>
-  </si>
-  <si>
     <t>Bridal Dressing</t>
   </si>
   <si>
     <t>bridal-dressing</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/hITH3nXcb1XsB8vMr2Oucw37dQ57sOpKGTYtUu9b.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/w64xii3EJTpyggggsMV0QGrzeqsMUSHePwWGphB4.jpg</t>
-  </si>
-  <si>
     <t>Bridesmaid Makeup</t>
   </si>
   <si>
     <t>bridesmaid-makeup</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/soV19af9cPalj8TfSGyT7saFnOmPnQ5H4xyanqAa.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/L3SMDJH79HFvKaqHq4vBNN8rkvEVsc46oTgNUFYD.jpg</t>
-  </si>
-  <si>
     <t>Bridesmaid Silver Lining Package</t>
   </si>
   <si>
     <t>bridesmaid-silver-lining-package</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/ragMYvGTfXL2NUyP6hsAtbAerx044YT5BaayT1fN.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/d7NlMjuuyltsl91S982r9W7riDlGZaju5qZHTO98.jpg</t>
-  </si>
-  <si>
     <t>Bridesmaid Makeup &amp; Hairstyling</t>
   </si>
   <si>
     <t>bridesmaid-makeup-hairstyling</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/RifTPuqrRaJXAIE6xLaeKnoccFYJmHiUnTdE4XV9.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/LNDjUNq1alQOkSq32o0iTkKpCfkRl7fMCRtR6uqR.jpg</t>
-  </si>
-  <si>
     <t>Pedicure</t>
   </si>
   <si>
     <t>pedicure</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/YftA1NyCnAVExMbNM2yw9s6SZ5T4RDOYSBUcpS4g.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/8fBdnTjqX6YMz73yM0Zh6DMBd7LUBrDuTQbsyeGM.jpg</t>
-  </si>
-  <si>
     <t>Cut, File &amp; Polish</t>
   </si>
   <si>
     <t>cut-file-polish</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/RjNwT8sDG1JvPrnzJyckiYF2lQOuFMet5Q8wSsLe.png</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/fjj2fZJ0xkBlEFnyxZtqk2crMmaOH4q4VyNfMKbj.png</t>
-  </si>
-  <si>
     <t>Nail Art</t>
   </si>
   <si>
     <t>nail-art</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/zmJAnDQDxhMU2yBOKjVFrb3smVQfneb1HdauvOSK.png</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/3JmypHxvvhM9wnVTW8MvpA85AcI6v1sSSV3LDLD2.jpg</t>
-  </si>
-  <si>
     <t>Nail Extension</t>
   </si>
   <si>
     <t>nail-extension</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/vzO8ZG7rsq8USZWPHvA6vRkRNvX4LfopYOGmrKXO.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/JsEBNYvRfIyhoOOQgStbJgwNf9FmTP4MflVsauvP.jpg</t>
-  </si>
-  <si>
     <t>Hair Dresser Service</t>
   </si>
   <si>
     <t>hair-dresser-service</t>
   </si>
   <si>
-    <t>https://demo.murarkey.com/image/cache/100X100/PPBgC0dxXpPeSv3Swn8PcuJfUZilOBPSDawRyRq6.jpg</t>
-  </si>
-  <si>
-    <t>https://demo.murarkey.com/image/cache/600X600/KK8aoaSrRQlsfSxXIYQrfhyQ534hC86Aw3LTElk6.jpg</t>
+    <t>https://d2q7lj72xliqot.cloudfront.net/uploads/event/2013-07-19/88807/88807_1.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1040,9 +569,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1351,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +908,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1388,456 +920,456 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>256</v>
+        <v>166</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>269</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>270</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>266</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>272</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>296</v>
+        <v>166</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>297</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>302</v>
+        <v>154</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>304</v>
+        <v>166</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>268</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>298</v>
+        <v>152</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>299</v>
+        <v>153</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>305</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>245</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>276</v>
+        <v>166</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>301</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>291</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>292</v>
+        <v>166</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>279</v>
+        <v>143</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>280</v>
+        <v>166</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>282</v>
+        <v>144</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>283</v>
+        <v>145</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>284</v>
+        <v>166</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>288</v>
+        <v>166</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,18 +1383,18 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
@@ -1871,218 +1403,218 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>322</v>
+        <v>164</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>323</v>
+        <v>165</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>325</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
@@ -2091,18 +1623,18 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
@@ -2111,18 +1643,18 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
@@ -2131,18 +1663,18 @@
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
@@ -2151,827 +1683,827 @@
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>317</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>321</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>285</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>289</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>293</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>238</v>
+        <v>122</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>310</v>
+        <v>158</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>311</v>
+        <v>159</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>312</v>
+        <v>166</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>314</v>
+        <v>160</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>315</v>
+        <v>161</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>316</v>
+        <v>166</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>318</v>
+        <v>162</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>320</v>
+        <v>166</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>308</v>
+        <v>166</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2981,5 +2513,6 @@
     <sortCondition ref="A2:A81"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>